--- a/trunk/setpass/车.xlsx
+++ b/trunk/setpass/车.xlsx
@@ -35,7 +35,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -100,10 +100,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -458,7 +458,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>40544</v>
+        <v>40909</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>40563</v>
+        <v>40928</v>
       </c>
       <c r="C8">
         <v>150</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>40569</v>
+        <v>40934</v>
       </c>
       <c r="C9">
         <v>300</v>
@@ -484,6 +484,14 @@
       <c r="C10" s="1">
         <f>SUM(C2:C9)</f>
         <v>1810</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>40946</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
